--- a/public/templates/list_template.xlsx
+++ b/public/templates/list_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proyecto_quisvar\quisvar_proyect_ft\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1m-1\OneDrive\Documentos\jim\Quisvar\quisvar_proyect_ft\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B8140E-9393-4588-90FE-15FFB25B0C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E941AE3A-D818-4996-B53E-7E60C9B4B668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A99DD02-9F49-46A8-8BDA-982B4B360E0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2A99DD02-9F49-46A8-8BDA-982B4B360E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,25 +201,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFF8C5C5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF87E4BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFFE17F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFF19191"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2595B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF83A8F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,9 +531,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -534,9 +543,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -546,20 +552,8 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -570,27 +564,10 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -600,7 +577,6 @@
     <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,6 +584,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -618,7 +630,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFCCCC"/>
+      <color rgb="FF83A8F0"/>
+      <color rgb="FFD2595B"/>
+      <color rgb="FFF19191"/>
+      <color rgb="FFF8C5C5"/>
+      <color rgb="FFFFE17F"/>
+      <color rgb="FF87E4BD"/>
+      <color rgb="FFFFD140"/>
+      <color rgb="FF57D9A3"/>
+      <color rgb="FF2264E5"/>
+      <color rgb="FFC00000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -932,7 +953,7 @@
   <dimension ref="B2:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -954,13 +975,13 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -978,13 +999,13 @@
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
@@ -992,25 +1013,25 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="31" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1036,107 +1057,107 @@
       <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>2</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>0.5</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>3</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>10</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>4</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>20</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>5</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>80</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22">
+      <c r="B13" s="17">
         <v>6</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="19">
         <v>0</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P15" s="37"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/public/templates/list_template.xlsx
+++ b/public/templates/list_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1m-1\OneDrive\Documentos\jim\Quisvar\quisvar_proyect_ft\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proyecto_quisvar\quisvar_proyect_ft\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E941AE3A-D818-4996-B53E-7E60C9B4B668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77317FBB-4BDB-403A-99A3-F822B3270A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2A99DD02-9F49-46A8-8BDA-982B4B360E0E}"/>
+    <workbookView xWindow="-7110" yWindow="4770" windowWidth="21600" windowHeight="11295" xr2:uid="{2A99DD02-9F49-46A8-8BDA-982B4B360E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
-  <si>
-    <t>PERIODO 12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>ITEM</t>
   </si>
@@ -112,11 +109,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-280A]d&quot; &quot;mmmm&quot; &quot;yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;S/&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,33 +129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.5"/>
-      <color theme="1"/>
-      <name val="Agency FB"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Agency FB"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Agency FB"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Agency FB"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,37 +136,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -235,8 +218,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -245,25 +240,85 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -272,62 +327,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -342,7 +345,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -357,142 +360,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -504,123 +372,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,240 +783,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39503C8-4BE0-4347-8953-4EF564791738}">
-  <dimension ref="B2:P37"/>
+  <dimension ref="B3:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="12" width="4.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="12" width="4.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="30" t="s">
+      <c r="H4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="29" t="s">
+      <c r="J4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="34" t="s">
+      <c r="M4" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>4</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4">
+        <v>80</v>
+      </c>
+      <c r="F12" s="10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
+        <v>6</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="13">
         <v>0</v>
       </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
-        <v>2</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
-        <v>3</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="15">
-        <v>10</v>
-      </c>
-      <c r="F10" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
-        <v>4</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="15">
-        <v>20</v>
-      </c>
-      <c r="F11" s="16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
-        <v>5</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="15">
-        <v>80</v>
-      </c>
-      <c r="F12" s="16">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
-        <v>6</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
+      <c r="F13" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P15" s="22"/>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B3:H3"/>
+  <mergeCells count="13">
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/public/templates/list_template.xlsx
+++ b/public/templates/list_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proyecto_quisvar\quisvar_proyect_ft\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\QUISVAR\quisvar_proyect_ft\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77317FBB-4BDB-403A-99A3-F822B3270A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8069095-EAFE-4BE7-8BE9-19C183BF4FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7110" yWindow="4770" windowWidth="21600" windowHeight="11295" xr2:uid="{2A99DD02-9F49-46A8-8BDA-982B4B360E0E}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{2A99DD02-9F49-46A8-8BDA-982B4B360E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>ITEM</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF877CDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -372,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -410,6 +419,24 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,22 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,6 +475,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF877CDC"/>
       <color rgb="FF83A8F0"/>
       <color rgb="FFD2595B"/>
       <color rgb="FFF19191"/>
@@ -472,7 +485,6 @@
       <color rgb="FFFFD140"/>
       <color rgb="FF57D9A3"/>
       <color rgb="FF2264E5"/>
-      <color rgb="FFC00000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -783,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39503C8-4BE0-4347-8953-4EF564791738}">
-  <dimension ref="B3:P37"/>
+  <dimension ref="B3:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -797,78 +809,82 @@
     <col min="4" max="4" width="39" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
-    <col min="7" max="12" width="4.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="13" width="4.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="3" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -881,8 +897,9 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
@@ -899,11 +916,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -916,11 +933,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -933,12 +950,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>3</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -951,11 +969,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>4</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -968,11 +986,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>5</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -985,11 +1003,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
         <v>6</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -1002,42 +1020,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="13:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="14:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
